--- a/Zorro_related/FXCM_GAPs.xlsx
+++ b/Zorro_related/FXCM_GAPs.xlsx
@@ -13491,4 +13491,454 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E7D173AC2D9E6E43AD8B034B2E7BF677" ma:contentTypeVersion="283" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1367f98a33de75794fd01cd8029a487f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e8ce48db-cbf9-4e2a-a8e9-d8702f756361" xmlns:ns3="a785ad58-1d57-4f8a-aa71-77170459bd0d" xmlns:ns4="4c5a7fc9-41bd-4fab-bd4c-d68330de0763" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="629b4a2daae8706b474bd2262d50056a" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="e8ce48db-cbf9-4e2a-a8e9-d8702f756361"/>
+    <xsd:import namespace="a785ad58-1d57-4f8a-aa71-77170459bd0d"/>
+    <xsd:import namespace="4c5a7fc9-41bd-4fab-bd4c-d68330de0763"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
+                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
+                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ContractExpirationDate" minOccurs="0"/>
+                <xsd:element ref="ns2:DossierOwner" minOccurs="0"/>
+                <xsd:element ref="ns2:DossierStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:ContractStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:deefd1aee54e4585867980f452cc48f4" minOccurs="0"/>
+                <xsd:element ref="ns2:ContractDate" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:n058667faf4e4c84996c9e0d22d38229" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="22" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="23" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e8ce48db-cbf9-4e2a-a8e9-d8702f756361" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:hidden="true" ma:indexed="true" ma:internalName="_dlc_DocId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="false">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="11" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{11b43413-bdde-49a5-90cf-2a1b8f960266}" ma:internalName="TaxCatchAll" ma:readOnly="false" ma:showField="CatchAllData" ma:web="e8ce48db-cbf9-4e2a-a8e9-d8702f756361">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ContractExpirationDate" ma:index="12" nillable="true" ma:displayName="Expiry Date" ma:description="The formal expiration date of the subject, either according to the contractual agreement or because a termination has become (legally) effective. " ma:format="DateOnly" ma:hidden="true" ma:internalName="ContractExpirationDate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="DossierOwner" ma:index="13" nillable="true" ma:displayName="Dossier owner(s)" ma:description="Person(s) owning the dossier." ma:hidden="true" ma:internalName="DossierOwner" ma:showField="ImnName">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="DossierStatus" ma:index="14" nillable="true" ma:displayName="Dossier Status" ma:default="" ma:description="Indicate the status of the dossier." ma:hidden="true" ma:internalName="DossierStatus" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Open"/>
+          <xsd:enumeration value="Closed"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ContractStatus" ma:index="15" nillable="true" ma:displayName="Contract Status" ma:description="The status of the contract." ma:hidden="true" ma:internalName="ContractStatus" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Draft"/>
+          <xsd:enumeration value="Active"/>
+          <xsd:enumeration value="Terminated"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="deefd1aee54e4585867980f452cc48f4" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="deefd1aee54e4585867980f452cc48f4" ma:taxonomyFieldName="Contract_Type" ma:displayName="Contract Type" ma:readOnly="false" ma:fieldId="{deefd1ae-e54e-4585-8679-80f452cc48f4}" ma:sspId="10820af1-e82f-496e-bbcb-d9502914b7b2" ma:termSetId="5bebde3b-4271-46bd-8686-acbb0504f7a4" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ContractDate" ma:index="18" nillable="true" ma:displayName="Contract Date" ma:description="Date when the contract has been closed." ma:format="DateOnly" ma:hidden="true" ma:internalName="ContractDate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="n058667faf4e4c84996c9e0d22d38229" ma:index="33" nillable="true" ma:taxonomy="true" ma:internalName="n058667faf4e4c84996c9e0d22d38229" ma:taxonomyFieldName="Document_Class" ma:displayName="Document Class" ma:readOnly="false" ma:fieldId="{7058667f-af4e-4c84-996c-9e0d22d38229}" ma:sspId="10820af1-e82f-496e-bbcb-d9502914b7b2" ma:termSetId="c559c2e0-865b-4fc5-b5c9-5e38437bf3e5" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="35" nillable="true" ma:displayName="Shared With Details" ma:hidden="true" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a785ad58-1d57-4f8a-aa71-77170459bd0d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:hidden="true" ma:internalName="_x0024_Resources_x003a_core_x002c_SharedWithFieldDisplayName_x003b_" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c5a7fc9-41bd-4fab-bd4c-d68330de0763" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="20" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="21" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="24" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="25" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="26" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="27" nillable="true" ma:displayName="KeyPoints" ma:hidden="true" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="29" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="10820af1-e82f-496e-bbcb-d9502914b7b2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="30" nillable="true" ma:displayName="Extracted Text" ma:hidden="true" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="31" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="32" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e8ce48db-cbf9-4e2a-a8e9-d8702f756361" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ContractExpirationDate xmlns="e8ce48db-cbf9-4e2a-a8e9-d8702f756361" xsi:nil="true"/>
+    <ContractStatus xmlns="e8ce48db-cbf9-4e2a-a8e9-d8702f756361" xsi:nil="true"/>
+    <deefd1aee54e4585867980f452cc48f4 xmlns="e8ce48db-cbf9-4e2a-a8e9-d8702f756361">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </deefd1aee54e4585867980f452cc48f4>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <DossierStatus xmlns="e8ce48db-cbf9-4e2a-a8e9-d8702f756361" xsi:nil="true"/>
+    <ContractDate xmlns="e8ce48db-cbf9-4e2a-a8e9-d8702f756361" xsi:nil="true"/>
+    <DossierOwner xmlns="e8ce48db-cbf9-4e2a-a8e9-d8702f756361">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </DossierOwner>
+    <_dlc_DocId xmlns="e8ce48db-cbf9-4e2a-a8e9-d8702f756361">RPEM3PDDASYF-906998244-4292</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="e8ce48db-cbf9-4e2a-a8e9-d8702f756361">
+      <Url>https://allianzms.sharepoint.com/teams/DE1049-3855536/_layouts/15/DocIdRedir.aspx?ID=RPEM3PDDASYF-906998244-4292</Url>
+      <Description>RPEM3PDDASYF-906998244-4292</Description>
+    </_dlc_DocIdUrl>
+    <n058667faf4e4c84996c9e0d22d38229 xmlns="e8ce48db-cbf9-4e2a-a8e9-d8702f756361">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n058667faf4e4c84996c9e0d22d38229>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c5a7fc9-41bd-4fab-bd4c-d68330de0763">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_dlc_DocIdPersistId xmlns="e8ce48db-cbf9-4e2a-a8e9-d8702f756361" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34D40F89-E9F6-4C49-A648-1E25CA147596}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4B95A0B-C966-4DD7-81E3-B6766B17A5A8}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9398CB-6ECE-41DB-8761-C82531DEB88C}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A4FAF8E-868D-4637-B952-0FBD6198768C}"/>
 </file>